--- a/reports/air_export_employee_kpis/Omer ASIKGUL.xlsx
+++ b/reports/air_export_employee_kpis/Omer ASIKGUL.xlsx
@@ -513,31 +513,31 @@
         <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>11405</v>
+        <v>13196</v>
       </c>
       <c r="F2" t="n">
         <v>38.89383561643836</v>
       </c>
       <c r="G2" t="n">
-        <v>17846.8359760274</v>
+        <v>19579.90068493151</v>
       </c>
       <c r="H2" t="n">
         <v>91.28571428571429</v>
       </c>
       <c r="I2" t="n">
-        <v>38867</v>
+        <v>41997.28571428572</v>
       </c>
       <c r="J2" t="n">
         <v>105</v>
       </c>
       <c r="K2" t="n">
-        <v>60500</v>
+        <v>64992</v>
       </c>
       <c r="L2" t="n">
         <v>57</v>
       </c>
       <c r="M2" t="n">
-        <v>11405</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="3">
@@ -558,31 +558,31 @@
         <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>40594</v>
+        <v>44356</v>
       </c>
       <c r="F3" t="n">
         <v>38.89383561643836</v>
       </c>
       <c r="G3" t="n">
-        <v>17846.8359760274</v>
+        <v>19579.90068493151</v>
       </c>
       <c r="H3" t="n">
         <v>91.28571428571429</v>
       </c>
       <c r="I3" t="n">
-        <v>38867</v>
+        <v>41997.28571428572</v>
       </c>
       <c r="J3" t="n">
         <v>105</v>
       </c>
       <c r="K3" t="n">
-        <v>60500</v>
+        <v>64992</v>
       </c>
       <c r="L3" t="n">
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>11405</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="4">
@@ -603,31 +603,31 @@
         <v>105</v>
       </c>
       <c r="E4" t="n">
-        <v>60500</v>
+        <v>64992</v>
       </c>
       <c r="F4" t="n">
         <v>38.89383561643836</v>
       </c>
       <c r="G4" t="n">
-        <v>17846.8359760274</v>
+        <v>19579.90068493151</v>
       </c>
       <c r="H4" t="n">
         <v>91.28571428571429</v>
       </c>
       <c r="I4" t="n">
-        <v>38867</v>
+        <v>41997.28571428572</v>
       </c>
       <c r="J4" t="n">
         <v>105</v>
       </c>
       <c r="K4" t="n">
-        <v>60500</v>
+        <v>64992</v>
       </c>
       <c r="L4" t="n">
         <v>57</v>
       </c>
       <c r="M4" t="n">
-        <v>11405</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="5">
@@ -648,31 +648,31 @@
         <v>94</v>
       </c>
       <c r="E5" t="n">
-        <v>45231</v>
+        <v>46594</v>
       </c>
       <c r="F5" t="n">
         <v>38.89383561643836</v>
       </c>
       <c r="G5" t="n">
-        <v>17846.8359760274</v>
+        <v>19579.90068493151</v>
       </c>
       <c r="H5" t="n">
         <v>91.28571428571429</v>
       </c>
       <c r="I5" t="n">
-        <v>38867</v>
+        <v>41997.28571428572</v>
       </c>
       <c r="J5" t="n">
         <v>105</v>
       </c>
       <c r="K5" t="n">
-        <v>60500</v>
+        <v>64992</v>
       </c>
       <c r="L5" t="n">
         <v>57</v>
       </c>
       <c r="M5" t="n">
-        <v>11405</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="6">
@@ -693,31 +693,31 @@
         <v>90</v>
       </c>
       <c r="E6" t="n">
-        <v>54996</v>
+        <v>57310</v>
       </c>
       <c r="F6" t="n">
         <v>38.89383561643836</v>
       </c>
       <c r="G6" t="n">
-        <v>17846.8359760274</v>
+        <v>19579.90068493151</v>
       </c>
       <c r="H6" t="n">
         <v>91.28571428571429</v>
       </c>
       <c r="I6" t="n">
-        <v>38867</v>
+        <v>41997.28571428572</v>
       </c>
       <c r="J6" t="n">
         <v>105</v>
       </c>
       <c r="K6" t="n">
-        <v>60500</v>
+        <v>64992</v>
       </c>
       <c r="L6" t="n">
         <v>57</v>
       </c>
       <c r="M6" t="n">
-        <v>11405</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="7">
@@ -738,31 +738,31 @@
         <v>96</v>
       </c>
       <c r="E7" t="n">
-        <v>30263</v>
+        <v>35159</v>
       </c>
       <c r="F7" t="n">
         <v>38.89383561643836</v>
       </c>
       <c r="G7" t="n">
-        <v>17846.8359760274</v>
+        <v>19579.90068493151</v>
       </c>
       <c r="H7" t="n">
         <v>91.28571428571429</v>
       </c>
       <c r="I7" t="n">
-        <v>38867</v>
+        <v>41997.28571428572</v>
       </c>
       <c r="J7" t="n">
         <v>105</v>
       </c>
       <c r="K7" t="n">
-        <v>60500</v>
+        <v>64992</v>
       </c>
       <c r="L7" t="n">
         <v>57</v>
       </c>
       <c r="M7" t="n">
-        <v>11405</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="8">
@@ -783,31 +783,31 @@
         <v>104</v>
       </c>
       <c r="E8" t="n">
-        <v>29080</v>
+        <v>32374</v>
       </c>
       <c r="F8" t="n">
         <v>38.89383561643836</v>
       </c>
       <c r="G8" t="n">
-        <v>17846.8359760274</v>
+        <v>19579.90068493151</v>
       </c>
       <c r="H8" t="n">
         <v>91.28571428571429</v>
       </c>
       <c r="I8" t="n">
-        <v>38867</v>
+        <v>41997.28571428572</v>
       </c>
       <c r="J8" t="n">
         <v>105</v>
       </c>
       <c r="K8" t="n">
-        <v>60500</v>
+        <v>64992</v>
       </c>
       <c r="L8" t="n">
         <v>57</v>
       </c>
       <c r="M8" t="n">
-        <v>11405</v>
+        <v>13196</v>
       </c>
     </row>
   </sheetData>

--- a/reports/air_export_employee_kpis/Omer ASIKGUL.xlsx
+++ b/reports/air_export_employee_kpis/Omer ASIKGUL.xlsx
@@ -516,10 +516,10 @@
         <v>13196</v>
       </c>
       <c r="F2" t="n">
-        <v>38.89383561643836</v>
+        <v>90.11904761904762</v>
       </c>
       <c r="G2" t="n">
-        <v>19579.90068493151</v>
+        <v>39524.64285714286</v>
       </c>
       <c r="H2" t="n">
         <v>91.28571428571429</v>
@@ -561,10 +561,10 @@
         <v>44356</v>
       </c>
       <c r="F3" t="n">
-        <v>38.89383561643836</v>
+        <v>90.11904761904762</v>
       </c>
       <c r="G3" t="n">
-        <v>19579.90068493151</v>
+        <v>39524.64285714286</v>
       </c>
       <c r="H3" t="n">
         <v>91.28571428571429</v>
@@ -606,10 +606,10 @@
         <v>64992</v>
       </c>
       <c r="F4" t="n">
-        <v>38.89383561643836</v>
+        <v>90.11904761904762</v>
       </c>
       <c r="G4" t="n">
-        <v>19579.90068493151</v>
+        <v>39524.64285714286</v>
       </c>
       <c r="H4" t="n">
         <v>91.28571428571429</v>
@@ -651,10 +651,10 @@
         <v>46594</v>
       </c>
       <c r="F5" t="n">
-        <v>38.89383561643836</v>
+        <v>90.11904761904762</v>
       </c>
       <c r="G5" t="n">
-        <v>19579.90068493151</v>
+        <v>39524.64285714286</v>
       </c>
       <c r="H5" t="n">
         <v>91.28571428571429</v>
@@ -696,10 +696,10 @@
         <v>57310</v>
       </c>
       <c r="F6" t="n">
-        <v>38.89383561643836</v>
+        <v>90.11904761904762</v>
       </c>
       <c r="G6" t="n">
-        <v>19579.90068493151</v>
+        <v>39524.64285714286</v>
       </c>
       <c r="H6" t="n">
         <v>91.28571428571429</v>
@@ -741,10 +741,10 @@
         <v>35159</v>
       </c>
       <c r="F7" t="n">
-        <v>38.89383561643836</v>
+        <v>90.11904761904762</v>
       </c>
       <c r="G7" t="n">
-        <v>19579.90068493151</v>
+        <v>39524.64285714286</v>
       </c>
       <c r="H7" t="n">
         <v>91.28571428571429</v>
@@ -786,10 +786,10 @@
         <v>32374</v>
       </c>
       <c r="F8" t="n">
-        <v>38.89383561643836</v>
+        <v>90.11904761904762</v>
       </c>
       <c r="G8" t="n">
-        <v>19579.90068493151</v>
+        <v>39524.64285714286</v>
       </c>
       <c r="H8" t="n">
         <v>91.28571428571429</v>

--- a/reports/air_export_employee_kpis/Omer ASIKGUL.xlsx
+++ b/reports/air_export_employee_kpis/Omer ASIKGUL.xlsx
@@ -516,10 +516,10 @@
         <v>13196</v>
       </c>
       <c r="F2" t="n">
-        <v>90.11904761904762</v>
+        <v>79.88128408628408</v>
       </c>
       <c r="G2" t="n">
-        <v>39524.64285714286</v>
+        <v>35896.04092999593</v>
       </c>
       <c r="H2" t="n">
         <v>91.28571428571429</v>
@@ -561,10 +561,10 @@
         <v>44356</v>
       </c>
       <c r="F3" t="n">
-        <v>90.11904761904762</v>
+        <v>79.88128408628408</v>
       </c>
       <c r="G3" t="n">
-        <v>39524.64285714286</v>
+        <v>35896.04092999593</v>
       </c>
       <c r="H3" t="n">
         <v>91.28571428571429</v>
@@ -606,10 +606,10 @@
         <v>64992</v>
       </c>
       <c r="F4" t="n">
-        <v>90.11904761904762</v>
+        <v>79.88128408628408</v>
       </c>
       <c r="G4" t="n">
-        <v>39524.64285714286</v>
+        <v>35896.04092999593</v>
       </c>
       <c r="H4" t="n">
         <v>91.28571428571429</v>
@@ -651,10 +651,10 @@
         <v>46594</v>
       </c>
       <c r="F5" t="n">
-        <v>90.11904761904762</v>
+        <v>79.88128408628408</v>
       </c>
       <c r="G5" t="n">
-        <v>39524.64285714286</v>
+        <v>35896.04092999593</v>
       </c>
       <c r="H5" t="n">
         <v>91.28571428571429</v>
@@ -696,10 +696,10 @@
         <v>57310</v>
       </c>
       <c r="F6" t="n">
-        <v>90.11904761904762</v>
+        <v>79.88128408628408</v>
       </c>
       <c r="G6" t="n">
-        <v>39524.64285714286</v>
+        <v>35896.04092999593</v>
       </c>
       <c r="H6" t="n">
         <v>91.28571428571429</v>
@@ -741,10 +741,10 @@
         <v>35159</v>
       </c>
       <c r="F7" t="n">
-        <v>90.11904761904762</v>
+        <v>79.88128408628408</v>
       </c>
       <c r="G7" t="n">
-        <v>39524.64285714286</v>
+        <v>35896.04092999593</v>
       </c>
       <c r="H7" t="n">
         <v>91.28571428571429</v>
@@ -786,10 +786,10 @@
         <v>32374</v>
       </c>
       <c r="F8" t="n">
-        <v>90.11904761904762</v>
+        <v>79.88128408628408</v>
       </c>
       <c r="G8" t="n">
-        <v>39524.64285714286</v>
+        <v>35896.04092999593</v>
       </c>
       <c r="H8" t="n">
         <v>91.28571428571429</v>
